--- a/data/trans_camb/P16-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,67</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 24,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 23,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,11; 31,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,66; 18,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,87; 18,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 12,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 17,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 18,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 19,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 74,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 72,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,3; 100,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 30,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,32; 31,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,14; 22,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 38,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 38,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 39,78</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,98; 17,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 15,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,79; 20,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,53; 18,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,56; 16,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 13,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,0; 16,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,39; 14,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,04; 15,14</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,39; 45,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 40,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,06; 53,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,42; 34,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,73; 32,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,96; 25,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,01; 35,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 30,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,94; 32,63</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,38; 13,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 12,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 8,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,83; 15,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 10,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 7,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,04; 13,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 10,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 7,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,86; 34,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,3; 31,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 21,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,87; 28,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 17,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 13,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,51; 27,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,98; 20,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 15,0</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 13,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 13,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,8; 21,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 14,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 8,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 20,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,73; 13,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 8,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,99; 20,04</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,23; 37,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,51; 35,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,32; 57,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,09; 27,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 15,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 37,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,31; 28,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 19,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,74; 42,29</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,11</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,31; 15,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,33; 17,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,6; 20,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,13; 17,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 10,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,76; 11,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,91; 15,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,93; 12,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,45; 14,93</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,42%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,93; 40,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,59; 45,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,54; 52,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,8; 29,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,92; 18,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 19,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,33; 31,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,6; 25,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,04; 30,14</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 12,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,74; 11,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,25; 14,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 13,89</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 8,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 9,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 12,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 9,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 11,68</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,33%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,97; 32,02</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,15; 29,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,99; 37,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,5; 24,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 15,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 16,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,55; 26,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,98; 19,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,92; 23,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>14,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>11,1</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 24,49</t>
+          <t>6,02; 16,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 23,98</t>
+          <t>3,86; 14,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 31,37</t>
+          <t>8,78; 20,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 18,13</t>
+          <t>5,27; 16,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 18,32</t>
+          <t>4,82; 15,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 12,64</t>
+          <t>2,51; 12,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 17,54</t>
+          <t>7,26; 15,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 18,12</t>
+          <t>6,32; 14,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 19,05</t>
+          <t>7,15; 14,79</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>22,66%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 74,33</t>
+          <t>13,41; 41,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 72,89</t>
+          <t>8,58; 38,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 100,02</t>
+          <t>20,0; 51,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 30,86</t>
+          <t>8,6; 30,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 31,58</t>
+          <t>7,99; 28,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 22,36</t>
+          <t>4,01; 22,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 38,5</t>
+          <t>14,29; 32,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 38,22</t>
+          <t>12,67; 30,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 39,78</t>
+          <t>14,21; 31,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>-1,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 17,68</t>
+          <t>4,38; 13,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 15,29</t>
+          <t>3,15; 12,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 20,31</t>
+          <t>-21,54; 7,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 18,24</t>
+          <t>7,83; 15,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 16,88</t>
+          <t>1,57; 10,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 13,19</t>
+          <t>-0,2; 8,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 16,6</t>
+          <t>7,04; 13,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,42</t>
+          <t>3,63; 10,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 15,14</t>
+          <t>-16,31; 6,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>-2,45%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 45,85</t>
+          <t>9,86; 34,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 40,6</t>
+          <t>7,3; 31,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 53,67</t>
+          <t>-49,65; 18,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 34,52</t>
+          <t>12,87; 28,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,73; 32,32</t>
+          <t>2,55; 17,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 25,27</t>
+          <t>-0,21; 14,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 35,92</t>
+          <t>13,51; 27,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 30,97</t>
+          <t>6,98; 20,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,94; 32,63</t>
+          <t>-32,07; 12,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>13,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,23</t>
+          <t>3,09; 13,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,36</t>
+          <t>2,31; 13,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 8,77</t>
+          <t>9,5; 20,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,96</t>
+          <t>4,22; 14,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,02</t>
+          <t>-1,14; 8,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,8</t>
+          <t>-2,29; 27,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,04; 13,54</t>
+          <t>5,73; 13,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 10,08</t>
+          <t>1,65; 8,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,3</t>
+          <t>6,03; 25,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>27,08%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,86; 34,35</t>
+          <t>7,23; 37,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 31,85</t>
+          <t>5,51; 35,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 21,83</t>
+          <t>22,43; 56,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,87; 28,11</t>
+          <t>7,09; 27,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 17,75</t>
+          <t>-1,82; 15,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 13,72</t>
+          <t>-3,9; 48,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,51; 27,9</t>
+          <t>11,31; 28,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 20,7</t>
+          <t>3,26; 19,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 15,0</t>
+          <t>12,1; 53,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>16,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>12,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>12,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 13,58</t>
+          <t>6,31; 15,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,05</t>
+          <t>8,33; 17,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,8; 21,09</t>
+          <t>11,12; 20,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,9</t>
+          <t>9,13; 17,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,4</t>
+          <t>1,27; 10,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 20,83</t>
+          <t>4,92; 16,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,14</t>
+          <t>8,91; 15,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,96</t>
+          <t>5,93; 12,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 20,04</t>
+          <t>9,6; 17,74</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 37,58</t>
+          <t>14,93; 40,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 35,82</t>
+          <t>19,59; 45,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 57,52</t>
+          <t>25,46; 53,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,09; 27,15</t>
+          <t>14,8; 29,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 15,27</t>
+          <t>1,92; 18,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 37,06</t>
+          <t>7,92; 27,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,31; 28,05</t>
+          <t>17,33; 31,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 19,16</t>
+          <t>11,6; 25,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,74; 42,29</t>
+          <t>18,27; 35,55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,46</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>8,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,57</t>
+          <t>7,44; 12,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,33; 17,31</t>
+          <t>6,74; 11,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,01</t>
+          <t>-3,5; 13,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,13; 17,02</t>
+          <t>9,34; 13,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 10,33</t>
+          <t>3,98; 8,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 11,29</t>
+          <t>4,22; 13,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,91; 15,18</t>
+          <t>9,34; 12,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,93; 12,24</t>
+          <t>6,08; 9,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,45; 14,93</t>
+          <t>1,84; 12,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,93; 40,74</t>
+          <t>17,97; 32,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>19,59; 45,04</t>
+          <t>16,15; 29,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,54; 52,45</t>
+          <t>-7,9; 33,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,8; 29,9</t>
+          <t>15,5; 24,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,92; 18,0</t>
+          <t>6,57; 15,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,44; 19,8</t>
+          <t>7,18; 24,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,33; 31,3</t>
+          <t>18,55; 26,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,6; 25,13</t>
+          <t>11,98; 19,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,04; 30,14</t>
+          <t>4,2; 24,82</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>9,88</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>9,25</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>11,65</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>11,65</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>6,12</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>10,81</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>7,78</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>9,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>7,44; 12,54</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>6,74; 11,61</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 14,57</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 13,89</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 8,68</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 9,81</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 12,65</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>6,08; 9,55</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 11,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>24,36%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>22,82%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>28,74%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>19,88%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>21,75%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>15,66%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>18,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>17,97; 32,02</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>16,15; 29,7</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>19,99; 37,0</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>15,5; 24,19</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 15,21</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>5,99; 16,85</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>18,55; 26,01</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>11,98; 19,52</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>13,92; 23,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 16,13</t>
+          <t>6,57; 17,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,62</t>
+          <t>4,06; 14,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 20,15</t>
+          <t>8,71; 20,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 16,38</t>
+          <t>6,07; 16,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 15,58</t>
+          <t>5,03; 15,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 12,11</t>
+          <t>2,81; 12,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 15,49</t>
+          <t>7,57; 15,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,18</t>
+          <t>6,18; 13,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 14,79</t>
+          <t>7,31; 14,72</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 41,94</t>
+          <t>15,21; 45,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 38,3</t>
+          <t>9,61; 38,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,0; 51,75</t>
+          <t>20,25; 53,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 30,05</t>
+          <t>10,16; 29,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 28,58</t>
+          <t>8,54; 28,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 22,08</t>
+          <t>4,55; 23,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 32,91</t>
+          <t>14,63; 31,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 30,62</t>
+          <t>12,02; 28,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 31,76</t>
+          <t>14,1; 30,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,23</t>
+          <t>4,0; 13,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,36</t>
+          <t>2,81; 12,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 7,55</t>
+          <t>-20,95; 7,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,96</t>
+          <t>7,17; 15,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,02</t>
+          <t>1,65; 10,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 8,43</t>
+          <t>0,48; 8,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 13,54</t>
+          <t>7,05; 13,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 10,08</t>
+          <t>3,66; 10,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 6,42</t>
+          <t>-18,58; 6,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 34,35</t>
+          <t>9,23; 35,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 31,85</t>
+          <t>6,5; 31,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 18,48</t>
+          <t>-50,07; 18,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 28,11</t>
+          <t>11,39; 27,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 17,75</t>
+          <t>2,71; 18,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 14,93</t>
+          <t>0,73; 15,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,51; 27,9</t>
+          <t>13,84; 27,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 20,7</t>
+          <t>7,03; 21,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 12,95</t>
+          <t>-35,81; 12,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 13,58</t>
+          <t>3,19; 13,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,05</t>
+          <t>1,92; 12,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,5; 20,77</t>
+          <t>9,08; 20,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,9</t>
+          <t>4,97; 15,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,4</t>
+          <t>-2,14; 8,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 27,25</t>
+          <t>-2,15; 27,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,14</t>
+          <t>5,62; 13,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,96</t>
+          <t>1,51; 9,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 25,61</t>
+          <t>6,23; 26,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 37,58</t>
+          <t>7,52; 38,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 35,82</t>
+          <t>4,72; 35,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,43; 56,99</t>
+          <t>22,04; 58,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 27,15</t>
+          <t>8,3; 27,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 15,27</t>
+          <t>-3,49; 16,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 48,3</t>
+          <t>-3,75; 49,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 28,05</t>
+          <t>11,01; 27,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 19,16</t>
+          <t>2,92; 19,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,1; 53,0</t>
+          <t>12,62; 55,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,57</t>
+          <t>6,13; 15,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,33; 17,31</t>
+          <t>7,82; 16,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,77</t>
+          <t>11,2; 20,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,13; 17,02</t>
+          <t>9,47; 17,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 10,33</t>
+          <t>1,7; 10,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,92; 16,4</t>
+          <t>4,97; 16,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,91; 15,18</t>
+          <t>9,12; 15,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 12,24</t>
+          <t>5,96; 12,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,74</t>
+          <t>9,33; 17,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,93; 40,74</t>
+          <t>14,09; 38,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,59; 45,04</t>
+          <t>17,79; 43,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,46; 53,46</t>
+          <t>25,77; 53,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,8; 29,9</t>
+          <t>15,08; 30,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 18,0</t>
+          <t>2,81; 18,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 27,5</t>
+          <t>7,96; 28,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,33; 31,3</t>
+          <t>17,6; 31,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,6; 25,13</t>
+          <t>11,2; 24,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,27; 35,55</t>
+          <t>17,87; 34,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,54</t>
+          <t>7,44; 12,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,61</t>
+          <t>6,94; 11,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 13,58</t>
+          <t>-2,69; 13,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,89</t>
+          <t>9,24; 14,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,68</t>
+          <t>3,73; 8,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,67</t>
+          <t>4,37; 14,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,65</t>
+          <t>9,09; 12,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,55</t>
+          <t>6,16; 9,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 12,24</t>
+          <t>1,57; 11,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,97; 32,02</t>
+          <t>17,8; 31,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,15; 29,7</t>
+          <t>16,35; 29,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 33,96</t>
+          <t>-6,28; 32,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,5; 24,19</t>
+          <t>15,46; 24,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,57; 15,21</t>
+          <t>6,26; 14,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,18; 24,01</t>
+          <t>7,37; 24,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,55; 26,01</t>
+          <t>18,04; 25,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,52</t>
+          <t>12,2; 19,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,2; 24,82</t>
+          <t>3,19; 24,2</t>
         </is>
       </c>
     </row>
